--- a/氣象性能評估工具V2/data/obs/backup/2016-06-07_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-07_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-07 00:00:00</t>
+    <t>2016-06-07-00</t>
   </si>
   <si>
     <t>20.4</t>
@@ -160,7 +160,7 @@
     <t>27.8</t>
   </si>
   <si>
-    <t>2016-06-07 01:00:00</t>
+    <t>2016-06-07-01</t>
   </si>
   <si>
     <t>20.6</t>
@@ -199,7 +199,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-07 02:00:00</t>
+    <t>2016-06-07-02</t>
   </si>
   <si>
     <t>20.8</t>
@@ -235,7 +235,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-07 03:00:00</t>
+    <t>2016-06-07-03</t>
   </si>
   <si>
     <t>20.7</t>
@@ -253,7 +253,7 @@
     <t>26.3</t>
   </si>
   <si>
-    <t>2016-06-07 04:00:00</t>
+    <t>2016-06-07-04</t>
   </si>
   <si>
     <t>24.1</t>
@@ -268,7 +268,7 @@
     <t>20.2</t>
   </si>
   <si>
-    <t>2016-06-07 05:00:00</t>
+    <t>2016-06-07-05</t>
   </si>
   <si>
     <t>21.9</t>
@@ -286,7 +286,7 @@
     <t>28.1</t>
   </si>
   <si>
-    <t>2016-06-07 06:00:00</t>
+    <t>2016-06-07-06</t>
   </si>
   <si>
     <t>22.3</t>
@@ -319,7 +319,7 @@
     <t>29.0</t>
   </si>
   <si>
-    <t>2016-06-07 07:00:00</t>
+    <t>2016-06-07-07</t>
   </si>
   <si>
     <t>21.2</t>
@@ -361,7 +361,7 @@
     <t>29.7</t>
   </si>
   <si>
-    <t>2016-06-07 08:00:00</t>
+    <t>2016-06-07-08</t>
   </si>
   <si>
     <t>22.5</t>
@@ -397,7 +397,7 @@
     <t>30.3</t>
   </si>
   <si>
-    <t>2016-06-07 09:00:00</t>
+    <t>2016-06-07-09</t>
   </si>
   <si>
     <t>23.4</t>
@@ -430,7 +430,7 @@
     <t>31.4</t>
   </si>
   <si>
-    <t>2016-06-07 10:00:00</t>
+    <t>2016-06-07-10</t>
   </si>
   <si>
     <t>23.6</t>
@@ -457,7 +457,7 @@
     <t>31.7</t>
   </si>
   <si>
-    <t>2016-06-07 11:00:00</t>
+    <t>2016-06-07-11</t>
   </si>
   <si>
     <t>24.0</t>
@@ -487,7 +487,7 @@
     <t>33.1</t>
   </si>
   <si>
-    <t>2016-06-07 12:00:00</t>
+    <t>2016-06-07-12</t>
   </si>
   <si>
     <t>30.4</t>
@@ -511,7 +511,7 @@
     <t>31.1</t>
   </si>
   <si>
-    <t>2016-06-07 13:00:00</t>
+    <t>2016-06-07-13</t>
   </si>
   <si>
     <t>33.0</t>
@@ -526,7 +526,7 @@
     <t>32.7</t>
   </si>
   <si>
-    <t>2016-06-07 14:00:00</t>
+    <t>2016-06-07-14</t>
   </si>
   <si>
     <t>32.6</t>
@@ -538,7 +538,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-07 15:00:00</t>
+    <t>2016-06-07-15</t>
   </si>
   <si>
     <t>22.6</t>
@@ -553,7 +553,7 @@
     <t>32.1</t>
   </si>
   <si>
-    <t>2016-06-07 16:00:00</t>
+    <t>2016-06-07-16</t>
   </si>
   <si>
     <t>22.4</t>
@@ -565,7 +565,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>2016-06-07 17:00:00</t>
+    <t>2016-06-07-17</t>
   </si>
   <si>
     <t>14.3</t>
@@ -577,7 +577,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>2016-06-07 18:00:00</t>
+    <t>2016-06-07-18</t>
   </si>
   <si>
     <t>21.3</t>
@@ -595,7 +595,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-07 19:00:00</t>
+    <t>2016-06-07-19</t>
   </si>
   <si>
     <t>13.8</t>
@@ -604,13 +604,13 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-07 20:00:00</t>
+    <t>2016-06-07-20</t>
   </si>
   <si>
     <t>20.5</t>
   </si>
   <si>
-    <t>2016-06-07 21:00:00</t>
+    <t>2016-06-07-21</t>
   </si>
   <si>
     <t>22.0</t>
@@ -619,7 +619,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>2016-06-07 22:00:00</t>
+    <t>2016-06-07-22</t>
   </si>
   <si>
     <t>21.8</t>
@@ -628,7 +628,7 @@
     <t>13.7</t>
   </si>
   <si>
-    <t>2016-06-07 23:00:00</t>
+    <t>2016-06-07-23</t>
   </si>
   <si>
     <t>19.8</t>
